--- a/output/archivos/maxi-od-mini-ACTUALIZADO.xlsx
+++ b/output/archivos/maxi-od-mini-ACTUALIZADO.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,11 @@
           <t>Nuevo Precio</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Última fecha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,7 +482,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$ 462,73</t>
+          <t>578,43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -505,7 +515,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>1.818,09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -530,171 +545,209 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1275</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>537,11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>1573</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VINAGRE BLANCO DE ALCOHOL MAROLIO X1LT</t>
+          <t>TURRON GEORGALOS BLANDO COCO 120GRS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7797470133620</t>
+          <t>7790380013525</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MAXICONSUMO</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>OSCAR DAVID</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31363</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$ 520,58</t>
+          <t>Sin Precio</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3289</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VINAGRE DE MANZANA MAROLIO X1LT</t>
+          <t>TURRON GEORGALOS C/ FRUTA MANI FLOWPACK 120GRS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7797470133637</t>
+          <t>7790380012061</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MAXICONSUMO</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>OSCAR DAVID</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3933</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>243.79</t>
+          <t>Sin Precio</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3435</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VINAGRE DE MANZANA MOLTO X 500 ML</t>
+          <t>TURRON GEORGALOS C/ MIEL MANI FLOWPACK 80GRS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7798138551572</t>
+          <t>7790380012122</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MAXICONSUMO</t>
+          <t>OSCAR DAVID</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$ 578,43</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VINAGRE DE VINO MAROLIO X 500 ML</t>
+          <t>TURRON GEORGALOS MANI FLOWPACK 120GRS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7797470132739</t>
+          <t>7790380013068</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MAXICONSUMO</t>
+          <t>OSCAR DAVID</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$ 520,57</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5637</t>
+          <t>5703</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VINAGRE DOS ANCLAS ALCOHOL 3,0LT</t>
+          <t>TURRON GEORGALOS NUCREM MANI 150GRS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7792900806037</t>
+          <t>7790380026044</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MAXICONSUMO</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>OSCAR DAVID</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17290</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$ 2.396,61</t>
+          <t>Sin Precio</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VINAGRE MOLTO DE MANZANA X 1 LT</t>
+          <t>VINAGRE BLANCO DE ALCOHOL MAROLIO X1LT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7798138551589</t>
+          <t>7797470133620</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -705,159 +758,177 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$ 925,53</t>
+          <t>578,43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TURRON GEORGALOS BLANDO COCO 120GRS</t>
+          <t>VINAGRE DE MANZANA MAROLIO X1LT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7790380013525</t>
+          <t>7797470133637</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OSCAR DAVID MAYORISTA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>31363</t>
-        </is>
-      </c>
+          <t>MAXICONSUMO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TURRON GEORGALOS C/ FRUTA MANI FLOWPACK 120GRS</t>
+          <t>VINAGRE DE MANZANA MOLTO X 500 ML</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7790380012061</t>
+          <t>7798138551572</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>OSCAR DAVID MAYORISTA</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3933</t>
-        </is>
-      </c>
+          <t>MAXICONSUMO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>243.79</t>
+          <t>702,39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TURRON GEORGALOS C/ MIEL MANI FLOWPACK 80GRS</t>
+          <t>VINAGRE DE VINO MAROLIO X 500 ML</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7790380012122</t>
+          <t>7797470132739</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OSCAR DAVID MAYORISTA</t>
+          <t>MAXICONSUMO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>628,01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>5637</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TURRON GEORGALOS MANI FLOWPACK 120GRS</t>
+          <t>VINAGRE DOS ANCLAS ALCOHOL 3,0LT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7790380013068</t>
+          <t>7792900806037</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OSCAR DAVID MAYORISTA</t>
+          <t>MAXICONSUMO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>2.578,43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TURRON GEORGALOS NUCREM MANI 150GRS</t>
+          <t>VINAGRE MOLTO DE MANZANA X 1 LT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7790380026044</t>
+          <t>7798138551589</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OSCAR DAVID MAYORISTA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>17290</t>
-        </is>
-      </c>
+          <t>MAXICONSUMO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>1.074,29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
